--- a/data/pca/factorExposure/factorExposure_2019-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1101118330807873</v>
+        <v>-0.0688949805049353</v>
       </c>
       <c r="C2">
-        <v>-0.0007584690391827411</v>
+        <v>-0.03684211018942243</v>
       </c>
       <c r="D2">
-        <v>-0.07594429089437063</v>
+        <v>-0.01675262910505654</v>
       </c>
       <c r="E2">
-        <v>-0.01606364543718863</v>
+        <v>-0.04308780081691405</v>
       </c>
       <c r="F2">
-        <v>-0.1243531311379224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1331256394043986</v>
+      </c>
+      <c r="G2">
+        <v>0.06664167076228965</v>
+      </c>
+      <c r="H2">
+        <v>-0.05182713302189924</v>
+      </c>
+      <c r="I2">
+        <v>-0.1073253279358599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2182563807601592</v>
+        <v>-0.1602842883364924</v>
       </c>
       <c r="C3">
-        <v>0.1490341757919672</v>
+        <v>-0.1087376321045278</v>
       </c>
       <c r="D3">
-        <v>-0.0552308646891106</v>
+        <v>0.01135423349763386</v>
       </c>
       <c r="E3">
-        <v>0.00512467374344731</v>
+        <v>0.001565158646061981</v>
       </c>
       <c r="F3">
-        <v>-0.3315921219742568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3775308310994997</v>
+      </c>
+      <c r="G3">
+        <v>0.2824009648575621</v>
+      </c>
+      <c r="H3">
+        <v>-0.0621813421463875</v>
+      </c>
+      <c r="I3">
+        <v>-0.3616939427881307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09606495352249199</v>
+        <v>-0.07194730834645371</v>
       </c>
       <c r="C4">
-        <v>0.03577237276457555</v>
+        <v>-0.04896167127825787</v>
       </c>
       <c r="D4">
-        <v>-0.05061791046313062</v>
+        <v>0.0180550684468493</v>
       </c>
       <c r="E4">
-        <v>0.02804310556006617</v>
+        <v>-0.04098180989325637</v>
       </c>
       <c r="F4">
-        <v>-0.06834842392021329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07811271703369783</v>
+      </c>
+      <c r="G4">
+        <v>0.03029004098741792</v>
+      </c>
+      <c r="H4">
+        <v>-0.04847078924953774</v>
+      </c>
+      <c r="I4">
+        <v>-0.0547434976694789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02120583563892125</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01000230536069457</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005296599302633274</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005891385635515182</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008409043014106703</v>
+      </c>
+      <c r="G6">
+        <v>-0.01471088502325739</v>
+      </c>
+      <c r="H6">
+        <v>0.0186692389168117</v>
+      </c>
+      <c r="I6">
+        <v>0.004517563894708672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04651788077057545</v>
+        <v>-0.03424089386842161</v>
       </c>
       <c r="C7">
-        <v>0.01350245649001126</v>
+        <v>-0.01804644313805752</v>
       </c>
       <c r="D7">
-        <v>-0.0427844276748167</v>
+        <v>0.03702070236742096</v>
       </c>
       <c r="E7">
-        <v>-0.005029575200653363</v>
+        <v>-0.02849656004011643</v>
       </c>
       <c r="F7">
-        <v>-0.05737392709219094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04888412641458901</v>
+      </c>
+      <c r="G7">
+        <v>0.05271604849894361</v>
+      </c>
+      <c r="H7">
+        <v>0.004455340361862755</v>
+      </c>
+      <c r="I7">
+        <v>-0.03530593612736241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05485222649915477</v>
+        <v>-0.02852212329209219</v>
       </c>
       <c r="C8">
-        <v>0.05520803191463304</v>
+        <v>-0.05336873763385703</v>
       </c>
       <c r="D8">
-        <v>-0.03055111883903589</v>
+        <v>0.01530552079419499</v>
       </c>
       <c r="E8">
-        <v>0.02603354453659058</v>
+        <v>-0.02168788672296391</v>
       </c>
       <c r="F8">
-        <v>-0.0643256840917609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.06989847025506588</v>
+      </c>
+      <c r="G8">
+        <v>0.04849352133524021</v>
+      </c>
+      <c r="H8">
+        <v>-0.036753425459416</v>
+      </c>
+      <c r="I8">
+        <v>-0.06503353439635376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07978480061491576</v>
+        <v>-0.06061053202484881</v>
       </c>
       <c r="C9">
-        <v>0.02607397490443549</v>
+        <v>-0.04328726396858033</v>
       </c>
       <c r="D9">
-        <v>-0.05257926026561889</v>
+        <v>0.02104903681312928</v>
       </c>
       <c r="E9">
-        <v>0.04191759445969891</v>
+        <v>-0.03628436556880054</v>
       </c>
       <c r="F9">
-        <v>-0.05636553193524227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07889752387800433</v>
+      </c>
+      <c r="G9">
+        <v>0.02823152103503824</v>
+      </c>
+      <c r="H9">
+        <v>-0.0435006755476009</v>
+      </c>
+      <c r="I9">
+        <v>-0.02969263837549942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02431758107733594</v>
+        <v>-0.03527887707251627</v>
       </c>
       <c r="C10">
-        <v>-0.1541451707850911</v>
+        <v>0.1605853360872366</v>
       </c>
       <c r="D10">
-        <v>0.06323463972360202</v>
+        <v>-0.01759979995327208</v>
       </c>
       <c r="E10">
-        <v>-0.0399826395881585</v>
+        <v>0.03667726700857205</v>
       </c>
       <c r="F10">
-        <v>-0.06754791726741982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06734881211666244</v>
+      </c>
+      <c r="G10">
+        <v>0.02951694104265894</v>
+      </c>
+      <c r="H10">
+        <v>-0.04137325043531624</v>
+      </c>
+      <c r="I10">
+        <v>-0.052275006904505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06003128354598678</v>
+        <v>-0.04994301382474618</v>
       </c>
       <c r="C11">
-        <v>0.01599494563374231</v>
+        <v>-0.03365933751645327</v>
       </c>
       <c r="D11">
-        <v>-0.01161146586617299</v>
+        <v>-0.003827146538861929</v>
       </c>
       <c r="E11">
-        <v>-0.007823663023066587</v>
+        <v>-0.01045578698690081</v>
       </c>
       <c r="F11">
-        <v>-0.0423953964637455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0374057856526832</v>
+      </c>
+      <c r="G11">
+        <v>0.001086032372205974</v>
+      </c>
+      <c r="H11">
+        <v>-0.01541505558028549</v>
+      </c>
+      <c r="I11">
+        <v>-0.02739673940749911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04867455338112558</v>
+        <v>-0.04461765325149127</v>
       </c>
       <c r="C12">
-        <v>0.02057992787100146</v>
+        <v>-0.02979442453560793</v>
       </c>
       <c r="D12">
-        <v>-0.009936930636220594</v>
+        <v>0.007413998390322249</v>
       </c>
       <c r="E12">
-        <v>0.01023529728386934</v>
+        <v>-0.0107393374240993</v>
       </c>
       <c r="F12">
-        <v>-0.0291385704471003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01380316905196913</v>
+      </c>
+      <c r="G12">
+        <v>0.002881735160554346</v>
+      </c>
+      <c r="H12">
+        <v>-0.004667838873139113</v>
+      </c>
+      <c r="I12">
+        <v>-0.01551179302787965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06201416509297855</v>
+        <v>-0.0435044014288551</v>
       </c>
       <c r="C13">
-        <v>0.02778176444955015</v>
+        <v>-0.02946568441173917</v>
       </c>
       <c r="D13">
-        <v>-0.02851765848042491</v>
+        <v>-0.01282062882293053</v>
       </c>
       <c r="E13">
-        <v>-0.02938526999237232</v>
+        <v>-0.01147926085827018</v>
       </c>
       <c r="F13">
-        <v>-0.1053716366484371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1022387931232355</v>
+      </c>
+      <c r="G13">
+        <v>0.03634608735068381</v>
+      </c>
+      <c r="H13">
+        <v>-0.02897775053670164</v>
+      </c>
+      <c r="I13">
+        <v>-0.06118163459903354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03716448668677649</v>
+        <v>-0.02692775228586483</v>
       </c>
       <c r="C14">
-        <v>0.02000545738961382</v>
+        <v>-0.02316048443983754</v>
       </c>
       <c r="D14">
-        <v>-0.03814792427593423</v>
+        <v>0.007213662472773857</v>
       </c>
       <c r="E14">
-        <v>0.004145304188795572</v>
+        <v>-0.02948471895154671</v>
       </c>
       <c r="F14">
-        <v>-0.01854675349814791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03448401148021541</v>
+      </c>
+      <c r="G14">
+        <v>0.05544068709297898</v>
+      </c>
+      <c r="H14">
+        <v>-0.01180721013900266</v>
+      </c>
+      <c r="I14">
+        <v>-0.01771394131092973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05188794419126413</v>
+        <v>-0.04306004202427206</v>
       </c>
       <c r="C16">
-        <v>0.0235617851373562</v>
+        <v>-0.03579841121338111</v>
       </c>
       <c r="D16">
-        <v>-0.008997044386502735</v>
+        <v>0.001617875356047117</v>
       </c>
       <c r="E16">
-        <v>-0.001847882159522446</v>
+        <v>-0.008167518227756979</v>
       </c>
       <c r="F16">
-        <v>-0.03409039711818385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03362376950818389</v>
+      </c>
+      <c r="G16">
+        <v>0.005307780589464383</v>
+      </c>
+      <c r="H16">
+        <v>-0.004630871646057904</v>
+      </c>
+      <c r="I16">
+        <v>-0.0281930853188624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06894043175444155</v>
+        <v>-0.05374329839274439</v>
       </c>
       <c r="C19">
-        <v>0.04446208689826019</v>
+        <v>-0.04685487182905773</v>
       </c>
       <c r="D19">
-        <v>-0.02649201156029539</v>
+        <v>-0.0001168648405405632</v>
       </c>
       <c r="E19">
-        <v>-0.0007315793442556733</v>
+        <v>-0.02316162364268416</v>
       </c>
       <c r="F19">
-        <v>-0.07738458975652186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0890257745095589</v>
+      </c>
+      <c r="G19">
+        <v>0.05894216412113801</v>
+      </c>
+      <c r="H19">
+        <v>-0.01619327056082548</v>
+      </c>
+      <c r="I19">
+        <v>-0.06655671832033404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03493977957939328</v>
+        <v>-0.02019299365371648</v>
       </c>
       <c r="C20">
-        <v>0.03086583203806836</v>
+        <v>-0.03083829726297262</v>
       </c>
       <c r="D20">
-        <v>-0.04402638291910332</v>
+        <v>0.007447557280902909</v>
       </c>
       <c r="E20">
-        <v>0.01761912600387034</v>
+        <v>-0.02185770159780296</v>
       </c>
       <c r="F20">
-        <v>-0.06295282163882961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06234565920586888</v>
+      </c>
+      <c r="G20">
+        <v>0.05749039293844597</v>
+      </c>
+      <c r="H20">
+        <v>-0.007462243096739187</v>
+      </c>
+      <c r="I20">
+        <v>-0.07647469130315879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03919729057010465</v>
+        <v>-0.03395132505246296</v>
       </c>
       <c r="C21">
-        <v>0.03726372629750905</v>
+        <v>-0.03178283419306615</v>
       </c>
       <c r="D21">
-        <v>-0.01834030616017481</v>
+        <v>0.01352005753522636</v>
       </c>
       <c r="E21">
-        <v>-0.007834827058881087</v>
+        <v>-0.007961334388668848</v>
       </c>
       <c r="F21">
-        <v>-0.09711532407963279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07904023416624863</v>
+      </c>
+      <c r="G21">
+        <v>0.02303049547537555</v>
+      </c>
+      <c r="H21">
+        <v>-0.04745485882064402</v>
+      </c>
+      <c r="I21">
+        <v>-0.002448794395869274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05092567424125086</v>
+        <v>-0.04170103778671053</v>
       </c>
       <c r="C24">
-        <v>0.02123697960915779</v>
+        <v>-0.03143385946198973</v>
       </c>
       <c r="D24">
-        <v>-0.01613329258978672</v>
+        <v>0.002100058869570494</v>
       </c>
       <c r="E24">
-        <v>0.002933777959467291</v>
+        <v>-0.0114197626178302</v>
       </c>
       <c r="F24">
-        <v>-0.04403786360541215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03723165850450891</v>
+      </c>
+      <c r="G24">
+        <v>-0.0001590080241749815</v>
+      </c>
+      <c r="H24">
+        <v>-0.007776517094848535</v>
+      </c>
+      <c r="I24">
+        <v>-0.02922753944948905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0530262755817588</v>
+        <v>-0.04859400702070994</v>
       </c>
       <c r="C25">
-        <v>0.01596656485106382</v>
+        <v>-0.02789445587870104</v>
       </c>
       <c r="D25">
-        <v>-0.01134056971662855</v>
+        <v>0.0009838674765595226</v>
       </c>
       <c r="E25">
-        <v>0.0008779185704543162</v>
+        <v>-0.009714918974478192</v>
       </c>
       <c r="F25">
-        <v>-0.04093236755263808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04273065451910373</v>
+      </c>
+      <c r="G25">
+        <v>0.0004448504359413663</v>
+      </c>
+      <c r="H25">
+        <v>-0.01379695509442935</v>
+      </c>
+      <c r="I25">
+        <v>-0.01936466112688547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.0281010194472087</v>
+        <v>-0.01888433204339092</v>
       </c>
       <c r="C26">
-        <v>0.02996692324941092</v>
+        <v>-0.02981103560268331</v>
       </c>
       <c r="D26">
-        <v>-0.02509737242119275</v>
+        <v>-0.00268017680519349</v>
       </c>
       <c r="E26">
-        <v>-0.01830803618827739</v>
+        <v>-0.003777356138530869</v>
       </c>
       <c r="F26">
-        <v>-0.02984720427858491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04182779330640128</v>
+      </c>
+      <c r="G26">
+        <v>0.03284327281708665</v>
+      </c>
+      <c r="H26">
+        <v>-0.01167731796479019</v>
+      </c>
+      <c r="I26">
+        <v>-0.02313980671369302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1201867649377738</v>
+        <v>-0.07223011613598816</v>
       </c>
       <c r="C27">
-        <v>0.0181305902435033</v>
+        <v>-0.02662080218334892</v>
       </c>
       <c r="D27">
-        <v>-0.04096147930845695</v>
+        <v>0.006188906839335219</v>
       </c>
       <c r="E27">
-        <v>0.02541541206811091</v>
+        <v>-0.03439039853433658</v>
       </c>
       <c r="F27">
-        <v>-0.07772876524812218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06488509902203543</v>
+      </c>
+      <c r="G27">
+        <v>0.02134731318847154</v>
+      </c>
+      <c r="H27">
+        <v>-0.0262792616794021</v>
+      </c>
+      <c r="I27">
+        <v>-0.0381950195377599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02452494990185759</v>
+        <v>-0.05126789399007041</v>
       </c>
       <c r="C28">
-        <v>-0.2286787680352383</v>
+        <v>0.2448396891260264</v>
       </c>
       <c r="D28">
-        <v>0.1057787549117676</v>
+        <v>-0.0185768112104415</v>
       </c>
       <c r="E28">
-        <v>-0.0393377321431554</v>
+        <v>0.05289756114016301</v>
       </c>
       <c r="F28">
-        <v>-0.0481872398192247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05904317209221203</v>
+      </c>
+      <c r="G28">
+        <v>0.04033005325998305</v>
+      </c>
+      <c r="H28">
+        <v>-0.04295673451269674</v>
+      </c>
+      <c r="I28">
+        <v>-0.0752732759539374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03226868901630593</v>
+        <v>-0.02369965504235911</v>
       </c>
       <c r="C29">
-        <v>0.01816265308025426</v>
+        <v>-0.01999951060525256</v>
       </c>
       <c r="D29">
-        <v>-0.03573348803399628</v>
+        <v>0.01017597378360233</v>
       </c>
       <c r="E29">
-        <v>0.01615554895850917</v>
+        <v>-0.02997413226944956</v>
       </c>
       <c r="F29">
-        <v>-0.01910269611329255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03095054941633136</v>
+      </c>
+      <c r="G29">
+        <v>0.05604387225939553</v>
+      </c>
+      <c r="H29">
+        <v>-0.01547008034375733</v>
+      </c>
+      <c r="I29">
+        <v>-0.002904523371877947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1155507953753211</v>
+        <v>-0.09002188672330994</v>
       </c>
       <c r="C30">
-        <v>0.02106729944249333</v>
+        <v>-0.05467504989251754</v>
       </c>
       <c r="D30">
-        <v>-0.04535629191428926</v>
+        <v>-0.03405100828782508</v>
       </c>
       <c r="E30">
-        <v>-0.006826463350567855</v>
+        <v>-0.03521994790748672</v>
       </c>
       <c r="F30">
-        <v>-0.1047903831737561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1033452784107377</v>
+      </c>
+      <c r="G30">
+        <v>0.01469908331138411</v>
+      </c>
+      <c r="H30">
+        <v>0.007200978617518511</v>
+      </c>
+      <c r="I30">
+        <v>-0.02489105124723941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06952214021466983</v>
+        <v>-0.06097932914368897</v>
       </c>
       <c r="C31">
-        <v>0.01433642216928283</v>
+        <v>-0.023812156855046</v>
       </c>
       <c r="D31">
-        <v>-0.03367202088777831</v>
+        <v>-0.008449873047499636</v>
       </c>
       <c r="E31">
-        <v>-0.03034245267849439</v>
+        <v>-0.02427032724643939</v>
       </c>
       <c r="F31">
-        <v>0.03660004274359094</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005978464412200226</v>
+      </c>
+      <c r="G31">
+        <v>0.04827606680302439</v>
+      </c>
+      <c r="H31">
+        <v>-0.03086612951917953</v>
+      </c>
+      <c r="I31">
+        <v>-0.01288169370198037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07265802027274744</v>
+        <v>-0.04315156470250706</v>
       </c>
       <c r="C32">
-        <v>0.03740953629406886</v>
+        <v>-0.0474636570214452</v>
       </c>
       <c r="D32">
-        <v>-0.04103245317334622</v>
+        <v>0.01857828155004707</v>
       </c>
       <c r="E32">
-        <v>0.01455954232317308</v>
+        <v>-0.03706044241315497</v>
       </c>
       <c r="F32">
-        <v>-0.08719090793451388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08106886023399587</v>
+      </c>
+      <c r="G32">
+        <v>0.0409119968747494</v>
+      </c>
+      <c r="H32">
+        <v>-0.0256742341200978</v>
+      </c>
+      <c r="I32">
+        <v>-0.05212539383304583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07119214070204548</v>
+        <v>-0.05630650259621649</v>
       </c>
       <c r="C33">
-        <v>0.05516606532389616</v>
+        <v>-0.05833116179219604</v>
       </c>
       <c r="D33">
-        <v>-0.04271046178461844</v>
+        <v>-0.01531318484850602</v>
       </c>
       <c r="E33">
-        <v>-0.01345690815654276</v>
+        <v>-0.01479050222262922</v>
       </c>
       <c r="F33">
-        <v>-0.06462797428623272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07193351597331175</v>
+      </c>
+      <c r="G33">
+        <v>0.04285857321234697</v>
+      </c>
+      <c r="H33">
+        <v>-0.03656136472200897</v>
+      </c>
+      <c r="I33">
+        <v>-0.0304316429511394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05137433666408939</v>
+        <v>-0.04343989848208232</v>
       </c>
       <c r="C34">
-        <v>0.01949109307636501</v>
+        <v>-0.03500609177380196</v>
       </c>
       <c r="D34">
-        <v>-0.0179393208290764</v>
+        <v>0.006445737424926257</v>
       </c>
       <c r="E34">
-        <v>0.002500779876053591</v>
+        <v>-0.01702076950736434</v>
       </c>
       <c r="F34">
-        <v>-0.02783883978717994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03276260254657808</v>
+      </c>
+      <c r="G34">
+        <v>0.008028562289243285</v>
+      </c>
+      <c r="H34">
+        <v>-0.008218778426024529</v>
+      </c>
+      <c r="I34">
+        <v>-0.02405017001659164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01865550373123561</v>
+        <v>-0.01601920604001497</v>
       </c>
       <c r="C36">
-        <v>0.00184276104269629</v>
+        <v>-0.006340338589619357</v>
       </c>
       <c r="D36">
-        <v>-0.01234888446693476</v>
+        <v>0.004928966016235114</v>
       </c>
       <c r="E36">
-        <v>0.005359457326615451</v>
+        <v>-0.01089142389231308</v>
       </c>
       <c r="F36">
-        <v>-0.01354467869295984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02360512292559889</v>
+      </c>
+      <c r="G36">
+        <v>0.0388385635229189</v>
+      </c>
+      <c r="H36">
+        <v>-0.01800532754583177</v>
+      </c>
+      <c r="I36">
+        <v>0.007972823425088833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04477556581635988</v>
+        <v>-0.03449775571276252</v>
       </c>
       <c r="C38">
-        <v>0.01383157293962598</v>
+        <v>-0.0172346566127907</v>
       </c>
       <c r="D38">
-        <v>-0.0224782643441914</v>
+        <v>0.004874031311848268</v>
       </c>
       <c r="E38">
-        <v>0.01967784120200072</v>
+        <v>-0.01268265237052817</v>
       </c>
       <c r="F38">
-        <v>-0.01884674436935831</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04740948707770908</v>
+      </c>
+      <c r="G38">
+        <v>0.0292127881017349</v>
+      </c>
+      <c r="H38">
+        <v>-0.02352832463492622</v>
+      </c>
+      <c r="I38">
+        <v>0.01004072255908684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07233131877628302</v>
+        <v>-0.05468685504173644</v>
       </c>
       <c r="C39">
-        <v>0.02058620963757339</v>
+        <v>-0.04880553446503967</v>
       </c>
       <c r="D39">
-        <v>-0.02617266319074249</v>
+        <v>-0.002390292305452395</v>
       </c>
       <c r="E39">
-        <v>-0.01382087049288199</v>
+        <v>-0.02023366374131224</v>
       </c>
       <c r="F39">
-        <v>-0.03451585328764732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05419024837595977</v>
+      </c>
+      <c r="G39">
+        <v>-0.002349124295552836</v>
+      </c>
+      <c r="H39">
+        <v>-0.02197945300636024</v>
+      </c>
+      <c r="I39">
+        <v>-0.007681932055800953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07645465176103407</v>
+        <v>-0.05585726067107275</v>
       </c>
       <c r="C40">
-        <v>0.02112567520001202</v>
+        <v>-0.0448373210077256</v>
       </c>
       <c r="D40">
-        <v>-0.06078407572250583</v>
+        <v>-0.01867744367826997</v>
       </c>
       <c r="E40">
-        <v>-0.03344547568082839</v>
+        <v>-0.02670051644708674</v>
       </c>
       <c r="F40">
-        <v>-0.10545769554523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09439153259935676</v>
+      </c>
+      <c r="G40">
+        <v>0.03710061767256439</v>
+      </c>
+      <c r="H40">
+        <v>-0.02723449549674213</v>
+      </c>
+      <c r="I40">
+        <v>-0.1068199353000209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00416555251934888</v>
+        <v>-0.003378497440417404</v>
       </c>
       <c r="C41">
-        <v>0.02400343547017766</v>
+        <v>-0.01170513911734858</v>
       </c>
       <c r="D41">
-        <v>-0.03111662737969361</v>
+        <v>0.0003295720012758799</v>
       </c>
       <c r="E41">
-        <v>0.007264250158232796</v>
+        <v>-0.01069667121318563</v>
       </c>
       <c r="F41">
-        <v>0.009165142672658489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009472405383537432</v>
+      </c>
+      <c r="G41">
+        <v>0.04799060950543944</v>
+      </c>
+      <c r="H41">
+        <v>-0.0347756424490962</v>
+      </c>
+      <c r="I41">
+        <v>-0.01356866126480902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1971117756116025</v>
+        <v>-0.228359306795563</v>
       </c>
       <c r="C42">
-        <v>0.4840652907646699</v>
+        <v>-0.2637092984059747</v>
       </c>
       <c r="D42">
-        <v>0.7780736921914375</v>
+        <v>-0.03413848300750837</v>
       </c>
       <c r="E42">
-        <v>-0.2633339544888459</v>
+        <v>0.9061092433278154</v>
       </c>
       <c r="F42">
-        <v>0.05689109769011971</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1599665855269603</v>
+      </c>
+      <c r="G42">
+        <v>-0.002302775454452562</v>
+      </c>
+      <c r="H42">
+        <v>0.008752086639147862</v>
+      </c>
+      <c r="I42">
+        <v>-0.05587580273079001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.008290285343177968</v>
+        <v>-0.008683241491787248</v>
       </c>
       <c r="C43">
-        <v>0.02452234828554799</v>
+        <v>-0.01548608607392935</v>
       </c>
       <c r="D43">
-        <v>-0.03203170769136502</v>
+        <v>-0.002030245960508953</v>
       </c>
       <c r="E43">
-        <v>0.002241964209618337</v>
+        <v>-0.0105872024502451</v>
       </c>
       <c r="F43">
-        <v>-0.02078580775287239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02371435377564825</v>
+      </c>
+      <c r="G43">
+        <v>0.03511388213501502</v>
+      </c>
+      <c r="H43">
+        <v>-0.02017696725669744</v>
+      </c>
+      <c r="I43">
+        <v>-0.02407171398626684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04718549795641663</v>
+        <v>-0.03097820337642088</v>
       </c>
       <c r="C44">
-        <v>0.04670700604000642</v>
+        <v>-0.04447880142146656</v>
       </c>
       <c r="D44">
-        <v>-0.04510369180285528</v>
+        <v>0.004618350820225433</v>
       </c>
       <c r="E44">
-        <v>-0.005291853243434884</v>
+        <v>-0.01881239137767055</v>
       </c>
       <c r="F44">
-        <v>-0.1056685988175298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1157267051047153</v>
+      </c>
+      <c r="G44">
+        <v>0.09056091513272885</v>
+      </c>
+      <c r="H44">
+        <v>-0.04807542234830217</v>
+      </c>
+      <c r="I44">
+        <v>-0.05548079393263566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03354155624083951</v>
+        <v>-0.02671113269507562</v>
       </c>
       <c r="C46">
-        <v>0.02247231935579436</v>
+        <v>-0.03620973210909394</v>
       </c>
       <c r="D46">
-        <v>-0.04011933013976159</v>
+        <v>-0.00165961625931635</v>
       </c>
       <c r="E46">
-        <v>0.001130754500619209</v>
+        <v>-0.03289601900570531</v>
       </c>
       <c r="F46">
-        <v>-0.01646712129530967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04290894667387411</v>
+      </c>
+      <c r="G46">
+        <v>0.05950637699262488</v>
+      </c>
+      <c r="H46">
+        <v>-0.01282053460656267</v>
+      </c>
+      <c r="I46">
+        <v>-0.008991104528951608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09642609668856171</v>
+        <v>-0.08686964488586592</v>
       </c>
       <c r="C47">
-        <v>0.007780841904343489</v>
+        <v>-0.01976576911581842</v>
       </c>
       <c r="D47">
-        <v>-0.03064131352814299</v>
+        <v>-0.00356211632576559</v>
       </c>
       <c r="E47">
-        <v>0.003981024272030738</v>
+        <v>-0.02945896886644662</v>
       </c>
       <c r="F47">
-        <v>0.03153397700442813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01854974985346856</v>
+      </c>
+      <c r="G47">
+        <v>0.06453032316232982</v>
+      </c>
+      <c r="H47">
+        <v>-0.02388192346996781</v>
+      </c>
+      <c r="I47">
+        <v>-0.03455895491368803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02218781959455403</v>
+        <v>-0.02087481524864473</v>
       </c>
       <c r="C48">
-        <v>0.02064047345863633</v>
+        <v>-0.01825200126549361</v>
       </c>
       <c r="D48">
-        <v>-0.02553012847173123</v>
+        <v>0.00168924499138334</v>
       </c>
       <c r="E48">
-        <v>-0.0008813637775829159</v>
+        <v>-0.0143365715382403</v>
       </c>
       <c r="F48">
-        <v>-0.0187200876453489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02533933087433289</v>
+      </c>
+      <c r="G48">
+        <v>0.02842568465430357</v>
+      </c>
+      <c r="H48">
+        <v>-0.01601764120679388</v>
+      </c>
+      <c r="I48">
+        <v>-0.01026598417054291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09314774008974004</v>
+        <v>-0.08833366365924743</v>
       </c>
       <c r="C50">
-        <v>0.0288659881199499</v>
+        <v>-0.03896622950659908</v>
       </c>
       <c r="D50">
-        <v>-0.03579331206307484</v>
+        <v>0.01236859178920804</v>
       </c>
       <c r="E50">
-        <v>-0.005181762636639916</v>
+        <v>-0.02702585610541057</v>
       </c>
       <c r="F50">
-        <v>0.02935499542146514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01091060255186056</v>
+      </c>
+      <c r="G50">
+        <v>0.03829270898803772</v>
+      </c>
+      <c r="H50">
+        <v>0.01217230312799362</v>
+      </c>
+      <c r="I50">
+        <v>0.004664735365978796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0593013167517779</v>
+        <v>-0.03944393415216255</v>
       </c>
       <c r="C51">
-        <v>-0.0127472616756845</v>
+        <v>0.002474879088481907</v>
       </c>
       <c r="D51">
-        <v>-0.02058045544210762</v>
+        <v>-0.01125962434368643</v>
       </c>
       <c r="E51">
-        <v>-0.03491842427555068</v>
+        <v>-0.01175918521565604</v>
       </c>
       <c r="F51">
-        <v>-0.0609210109688381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09135837472378104</v>
+      </c>
+      <c r="G51">
+        <v>0.07077951021568391</v>
+      </c>
+      <c r="H51">
+        <v>-0.04980793013857001</v>
+      </c>
+      <c r="I51">
+        <v>-0.03091806844068365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1354351478358586</v>
+        <v>-0.1242178103768431</v>
       </c>
       <c r="C53">
-        <v>0.009651977795665904</v>
+        <v>-0.03700961073201776</v>
       </c>
       <c r="D53">
-        <v>-0.05745710145806376</v>
+        <v>-0.003452693717911087</v>
       </c>
       <c r="E53">
-        <v>-0.004150572027129495</v>
+        <v>-0.05556994174992781</v>
       </c>
       <c r="F53">
-        <v>0.06231443093627174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04845357947038913</v>
+      </c>
+      <c r="G53">
+        <v>0.01252777322467911</v>
+      </c>
+      <c r="H53">
+        <v>-0.03084215648737684</v>
+      </c>
+      <c r="I53">
+        <v>-0.04039233346410739</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02907196753693292</v>
+        <v>-0.02685610916965991</v>
       </c>
       <c r="C54">
-        <v>0.003827986864329488</v>
+        <v>-0.006804064860580009</v>
       </c>
       <c r="D54">
-        <v>-0.03349339822862093</v>
+        <v>0.00499912717437888</v>
       </c>
       <c r="E54">
-        <v>0.007402339957911789</v>
+        <v>-0.03063912457246908</v>
       </c>
       <c r="F54">
-        <v>-0.02095233731164114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02945175493417008</v>
+      </c>
+      <c r="G54">
+        <v>0.0551965924458737</v>
+      </c>
+      <c r="H54">
+        <v>-0.0309419757170382</v>
+      </c>
+      <c r="I54">
+        <v>-0.003510010079576423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1060187099166425</v>
+        <v>-0.09778636077355619</v>
       </c>
       <c r="C55">
-        <v>-0.006336012988289549</v>
+        <v>-0.03081599149371389</v>
       </c>
       <c r="D55">
-        <v>-0.03237172802932666</v>
+        <v>0.01448475284818905</v>
       </c>
       <c r="E55">
-        <v>0.04327860648994195</v>
+        <v>-0.03867243547885477</v>
       </c>
       <c r="F55">
-        <v>0.02171949961188202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03710879503949638</v>
+      </c>
+      <c r="G55">
+        <v>0.01872036730194524</v>
+      </c>
+      <c r="H55">
+        <v>0.01111308527513363</v>
+      </c>
+      <c r="I55">
+        <v>-0.02229168607022198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1666837218114959</v>
+        <v>-0.1626549853101809</v>
       </c>
       <c r="C56">
-        <v>-0.04552641494207769</v>
+        <v>-0.01670832886115612</v>
       </c>
       <c r="D56">
-        <v>-0.07612340884603785</v>
+        <v>-0.0003552163306366528</v>
       </c>
       <c r="E56">
-        <v>0.03055495002569559</v>
+        <v>-0.0870505681889007</v>
       </c>
       <c r="F56">
-        <v>0.1029095868020466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0935722386715564</v>
+      </c>
+      <c r="G56">
+        <v>-0.03771686751989618</v>
+      </c>
+      <c r="H56">
+        <v>0.005991944630988262</v>
+      </c>
+      <c r="I56">
+        <v>-0.04442344493275464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08565263116055334</v>
+        <v>-0.0673160195074476</v>
       </c>
       <c r="C57">
-        <v>0.02160008902364196</v>
+        <v>-0.03229965429581912</v>
       </c>
       <c r="D57">
-        <v>-0.03046003428367856</v>
+        <v>-0.0187169516368369</v>
       </c>
       <c r="E57">
-        <v>-0.03099674848624763</v>
+        <v>-0.005081484556774799</v>
       </c>
       <c r="F57">
-        <v>-0.04152501796538374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06668287106267025</v>
+      </c>
+      <c r="G57">
+        <v>0.02463965239423403</v>
+      </c>
+      <c r="H57">
+        <v>-0.01786173022511585</v>
+      </c>
+      <c r="I57">
+        <v>-0.02575094664412295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1984427054497116</v>
+        <v>-0.2108092120877169</v>
       </c>
       <c r="C58">
-        <v>0.03788530028659642</v>
+        <v>-0.1081407181136377</v>
       </c>
       <c r="D58">
-        <v>-0.0530283179606528</v>
+        <v>-0.08604557323598507</v>
       </c>
       <c r="E58">
-        <v>-0.047985608555329</v>
+        <v>0.01078280800239838</v>
       </c>
       <c r="F58">
-        <v>-0.121748454189431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2713044165953472</v>
+      </c>
+      <c r="G58">
+        <v>0.3610786773349751</v>
+      </c>
+      <c r="H58">
+        <v>0.3587244034418352</v>
+      </c>
+      <c r="I58">
+        <v>0.6894600066416245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02299521808342291</v>
+        <v>-0.04927358399265675</v>
       </c>
       <c r="C59">
-        <v>-0.1897638397511921</v>
+        <v>0.1992834219910602</v>
       </c>
       <c r="D59">
-        <v>0.05825197761581095</v>
+        <v>-0.0298570220385264</v>
       </c>
       <c r="E59">
-        <v>-0.02614081855174826</v>
+        <v>0.01805011303031016</v>
       </c>
       <c r="F59">
-        <v>-0.05068986516909194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07038463994480178</v>
+      </c>
+      <c r="G59">
+        <v>-0.002605145283526877</v>
+      </c>
+      <c r="H59">
+        <v>-0.01706052374715759</v>
+      </c>
+      <c r="I59">
+        <v>-0.01818099523605799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1808326056375868</v>
+        <v>-0.1903941282587059</v>
       </c>
       <c r="C60">
-        <v>-0.079080418496006</v>
+        <v>0.04943664598031976</v>
       </c>
       <c r="D60">
-        <v>-0.01476053433111673</v>
+        <v>-0.05260274742534297</v>
       </c>
       <c r="E60">
-        <v>-0.07639366218573898</v>
+        <v>-0.01033962922738344</v>
       </c>
       <c r="F60">
-        <v>-0.1847791871250356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2036609004421022</v>
+      </c>
+      <c r="G60">
+        <v>-0.3189060587959737</v>
+      </c>
+      <c r="H60">
+        <v>-0.03526133016533532</v>
+      </c>
+      <c r="I60">
+        <v>0.03173298452634514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04400284109414844</v>
+        <v>-0.0391829816924693</v>
       </c>
       <c r="C61">
-        <v>0.01366294481617005</v>
+        <v>-0.03220493230167485</v>
       </c>
       <c r="D61">
-        <v>-0.01349914874996755</v>
+        <v>0.003214740520739666</v>
       </c>
       <c r="E61">
-        <v>0.003965554649873697</v>
+        <v>-0.01086680737975954</v>
       </c>
       <c r="F61">
-        <v>-0.031403209120967</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03569391761784602</v>
+      </c>
+      <c r="G61">
+        <v>-0.005211507632621159</v>
+      </c>
+      <c r="H61">
+        <v>-0.01244927587160773</v>
+      </c>
+      <c r="I61">
+        <v>0.004946147629485656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04285825492911857</v>
+        <v>-0.03156592924339711</v>
       </c>
       <c r="C63">
-        <v>0.01282870617409827</v>
+        <v>-0.02430940429891606</v>
       </c>
       <c r="D63">
-        <v>-0.02585594058447491</v>
+        <v>-0.0005127840866071179</v>
       </c>
       <c r="E63">
-        <v>-0.007666806576068863</v>
+        <v>-0.01542635203406155</v>
       </c>
       <c r="F63">
-        <v>-0.03154055318700073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02719764375767367</v>
+      </c>
+      <c r="G63">
+        <v>0.05116513889982795</v>
+      </c>
+      <c r="H63">
+        <v>-0.00265846719002927</v>
+      </c>
+      <c r="I63">
+        <v>-0.03530426991990973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06298783689223857</v>
+        <v>-0.05611358387480181</v>
       </c>
       <c r="C64">
-        <v>0.02340751960292888</v>
+        <v>-0.03245468969314081</v>
       </c>
       <c r="D64">
-        <v>-0.02597593363846458</v>
+        <v>0.01236824116505499</v>
       </c>
       <c r="E64">
-        <v>0.02856249963942855</v>
+        <v>-0.02087989936062665</v>
       </c>
       <c r="F64">
-        <v>-0.03123622024697947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03836892813035549</v>
+      </c>
+      <c r="G64">
+        <v>0.03034634393382807</v>
+      </c>
+      <c r="H64">
+        <v>-0.05456324195252909</v>
+      </c>
+      <c r="I64">
+        <v>-0.03596627383764095</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02322318097680438</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01011013545800763</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005844358696920616</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006435490949025405</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005084313055425871</v>
+      </c>
+      <c r="G65">
+        <v>-0.01933786157125997</v>
+      </c>
+      <c r="H65">
+        <v>0.01709934054410298</v>
+      </c>
+      <c r="I65">
+        <v>0.003961494015300666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08009471113788121</v>
+        <v>-0.06784751449136421</v>
       </c>
       <c r="C66">
-        <v>0.02946653671446244</v>
+        <v>-0.05781357870475108</v>
       </c>
       <c r="D66">
-        <v>-0.05227003312377718</v>
+        <v>-0.009024763595548329</v>
       </c>
       <c r="E66">
-        <v>0.0004830257432485348</v>
+        <v>-0.04875117611602978</v>
       </c>
       <c r="F66">
-        <v>-0.07019455891481004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06602690034218629</v>
+      </c>
+      <c r="G66">
+        <v>-0.007202750799849431</v>
+      </c>
+      <c r="H66">
+        <v>-0.01090459437519107</v>
+      </c>
+      <c r="I66">
+        <v>-0.04183325813094882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05515833994994419</v>
+        <v>-0.04681202476401036</v>
       </c>
       <c r="C67">
-        <v>-0.009210142502607597</v>
+        <v>0.0006604386598246931</v>
       </c>
       <c r="D67">
-        <v>-0.006453441133408867</v>
+        <v>-0.001719190898690955</v>
       </c>
       <c r="E67">
-        <v>0.006741042406579456</v>
+        <v>-0.01022397471380052</v>
       </c>
       <c r="F67">
-        <v>-0.01652404465529777</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03617782974731816</v>
+      </c>
+      <c r="G67">
+        <v>0.01175132529070118</v>
+      </c>
+      <c r="H67">
+        <v>-0.03594610306429409</v>
+      </c>
+      <c r="I67">
+        <v>0.02416163411009073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03837530183177067</v>
+        <v>-0.06043241991138553</v>
       </c>
       <c r="C68">
-        <v>-0.2242092701824143</v>
+        <v>0.2356706148289981</v>
       </c>
       <c r="D68">
-        <v>0.09417075119505663</v>
+        <v>-0.03184973599986021</v>
       </c>
       <c r="E68">
-        <v>-0.03647686154275728</v>
+        <v>0.03998754829125358</v>
       </c>
       <c r="F68">
-        <v>-0.04752525910034526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05229526058960748</v>
+      </c>
+      <c r="G68">
+        <v>0.02101776274379848</v>
+      </c>
+      <c r="H68">
+        <v>0.003400262670501193</v>
+      </c>
+      <c r="I68">
+        <v>-0.03867797077959238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08094221424621026</v>
+        <v>-0.07293430274515472</v>
       </c>
       <c r="C69">
-        <v>0.002119420752236994</v>
+        <v>-0.02041273706415049</v>
       </c>
       <c r="D69">
-        <v>-0.0295599317318231</v>
+        <v>-0.005017046533769253</v>
       </c>
       <c r="E69">
-        <v>0.0007323369948943202</v>
+        <v>-0.03191470237886876</v>
       </c>
       <c r="F69">
-        <v>0.01880115475573875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.005401757701796244</v>
+      </c>
+      <c r="G69">
+        <v>0.03843535858052004</v>
+      </c>
+      <c r="H69">
+        <v>-0.02021561238325939</v>
+      </c>
+      <c r="I69">
+        <v>-0.01712894789501926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03634210398325326</v>
+        <v>-0.05700356632671882</v>
       </c>
       <c r="C71">
-        <v>-0.2665170010033985</v>
+        <v>0.2553596314739793</v>
       </c>
       <c r="D71">
-        <v>0.1090236618626965</v>
+        <v>-0.03725482589219487</v>
       </c>
       <c r="E71">
-        <v>-0.07826427902895644</v>
+        <v>0.06522359024257962</v>
       </c>
       <c r="F71">
-        <v>-0.07953141495545182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07213231892930765</v>
+      </c>
+      <c r="G71">
+        <v>0.02658919805054488</v>
+      </c>
+      <c r="H71">
+        <v>-0.02100329301933175</v>
+      </c>
+      <c r="I71">
+        <v>-0.04862940838542297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1260573467888982</v>
+        <v>-0.1227459655398157</v>
       </c>
       <c r="C72">
-        <v>-0.03292030787732396</v>
+        <v>-0.03556711998083291</v>
       </c>
       <c r="D72">
-        <v>-0.05369487670667301</v>
+        <v>-0.006515120722525924</v>
       </c>
       <c r="E72">
-        <v>0.004219711928293222</v>
+        <v>-0.07448783393274525</v>
       </c>
       <c r="F72">
-        <v>-0.07026564159921692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08220677872297207</v>
+      </c>
+      <c r="G72">
+        <v>-0.03100148191551333</v>
+      </c>
+      <c r="H72">
+        <v>0.04719109437058897</v>
+      </c>
+      <c r="I72">
+        <v>0.1187065819581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2773665333788707</v>
+        <v>-0.2722999468835714</v>
       </c>
       <c r="C73">
-        <v>-0.1469955643659523</v>
+        <v>0.06724569065605013</v>
       </c>
       <c r="D73">
-        <v>0.04281587849465426</v>
+        <v>-0.09109247605896668</v>
       </c>
       <c r="E73">
-        <v>-0.1162835888693032</v>
+        <v>0.03484440399087033</v>
       </c>
       <c r="F73">
-        <v>-0.3514285806767554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3145734353013404</v>
+      </c>
+      <c r="G73">
+        <v>-0.5367233119818821</v>
+      </c>
+      <c r="H73">
+        <v>0.01826386339282556</v>
+      </c>
+      <c r="I73">
+        <v>0.1091547828226846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1534565454476793</v>
+        <v>-0.1492649237263858</v>
       </c>
       <c r="C74">
-        <v>-0.000372342703802985</v>
+        <v>-0.03429653601640188</v>
       </c>
       <c r="D74">
-        <v>-0.04840791222309782</v>
+        <v>-0.0109132569168754</v>
       </c>
       <c r="E74">
-        <v>-0.00553245440415882</v>
+        <v>-0.05340365702918341</v>
       </c>
       <c r="F74">
-        <v>0.0458467673664059</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06584407087852008</v>
+      </c>
+      <c r="G74">
+        <v>-0.02736526781324271</v>
+      </c>
+      <c r="H74">
+        <v>0.008614531633375493</v>
+      </c>
+      <c r="I74">
+        <v>-0.07150570720151472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2258957221446714</v>
+        <v>-0.2452935823718659</v>
       </c>
       <c r="C75">
-        <v>-0.03176009803470001</v>
+        <v>-0.02152383055315481</v>
       </c>
       <c r="D75">
-        <v>-0.08261809773273843</v>
+        <v>-0.0268764754701204</v>
       </c>
       <c r="E75">
-        <v>-0.004305730902167888</v>
+        <v>-0.1155572726846853</v>
       </c>
       <c r="F75">
-        <v>0.1443329644353188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1475645146172719</v>
+      </c>
+      <c r="G75">
+        <v>-0.01611545044356974</v>
+      </c>
+      <c r="H75">
+        <v>-0.01588882118197956</v>
+      </c>
+      <c r="I75">
+        <v>-0.04583182395581178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2480356383927764</v>
+        <v>-0.2635038565444721</v>
       </c>
       <c r="C76">
-        <v>-0.06898139742630778</v>
+        <v>-0.007451195232631578</v>
       </c>
       <c r="D76">
-        <v>-0.08467470636211474</v>
+        <v>0.0121223614733869</v>
       </c>
       <c r="E76">
-        <v>0.06685142610961219</v>
+        <v>-0.1400799272169386</v>
       </c>
       <c r="F76">
-        <v>0.1339968057952052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1837317959378025</v>
+      </c>
+      <c r="G76">
+        <v>-0.04215748243794049</v>
+      </c>
+      <c r="H76">
+        <v>0.05918561464897431</v>
+      </c>
+      <c r="I76">
+        <v>-0.05715775048789395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1378008064794331</v>
+        <v>-0.1196289616237153</v>
       </c>
       <c r="C77">
-        <v>0.06294769670105149</v>
+        <v>-0.07482952286970319</v>
       </c>
       <c r="D77">
-        <v>-0.0116709948028026</v>
+        <v>-0.003346632145987366</v>
       </c>
       <c r="E77">
-        <v>-0.0145407808837708</v>
+        <v>0.03238275148843667</v>
       </c>
       <c r="F77">
-        <v>-0.1497620573829754</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1585183062832216</v>
+      </c>
+      <c r="G77">
+        <v>0.2106524059663763</v>
+      </c>
+      <c r="H77">
+        <v>0.03436690353105022</v>
+      </c>
+      <c r="I77">
+        <v>-0.2425819987328457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09670348292930042</v>
+        <v>-0.07264896344468379</v>
       </c>
       <c r="C78">
-        <v>0.07632812124505649</v>
+        <v>-0.07757857647077017</v>
       </c>
       <c r="D78">
-        <v>-0.01674050083905414</v>
+        <v>0.00944536855704424</v>
       </c>
       <c r="E78">
-        <v>0.008604179998108592</v>
+        <v>-0.009014710112184734</v>
       </c>
       <c r="F78">
-        <v>-0.04820981510213273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06619020189404004</v>
+      </c>
+      <c r="G78">
+        <v>0.01758810738941845</v>
+      </c>
+      <c r="H78">
+        <v>-0.01809072965080013</v>
+      </c>
+      <c r="I78">
+        <v>-0.04725749313509138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1018085821052416</v>
+        <v>-0.1362945366107708</v>
       </c>
       <c r="C80">
-        <v>0.004502159529826634</v>
+        <v>0.1017879841213128</v>
       </c>
       <c r="D80">
-        <v>0.3066517052946335</v>
+        <v>0.9713989826708535</v>
       </c>
       <c r="E80">
-        <v>0.9182649852395457</v>
+        <v>0.05194571373041545</v>
       </c>
       <c r="F80">
-        <v>-0.09695664743855328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04634710515357317</v>
+      </c>
+      <c r="G80">
+        <v>-0.02907662768417438</v>
+      </c>
+      <c r="H80">
+        <v>-0.03719197334150383</v>
+      </c>
+      <c r="I80">
+        <v>0.0960800315883297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1588096837057392</v>
+        <v>-0.1809066414882513</v>
       </c>
       <c r="C81">
-        <v>-0.01964756503073364</v>
+        <v>-0.008413862040034784</v>
       </c>
       <c r="D81">
-        <v>-0.04458548025769456</v>
+        <v>-0.006441795313047787</v>
       </c>
       <c r="E81">
-        <v>0.01328841779445496</v>
+        <v>-0.0878035832247744</v>
       </c>
       <c r="F81">
-        <v>0.179283212445584</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1605628692826787</v>
+      </c>
+      <c r="G81">
+        <v>0.00153093967345629</v>
+      </c>
+      <c r="H81">
+        <v>0.02683193033998872</v>
+      </c>
+      <c r="I81">
+        <v>-0.01537673514648518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09441970377211996</v>
+        <v>-0.06971287142804868</v>
       </c>
       <c r="C83">
-        <v>0.08830549970219886</v>
+        <v>-0.05768296214627706</v>
       </c>
       <c r="D83">
-        <v>0.01662463315282162</v>
+        <v>-0.01088078701636782</v>
       </c>
       <c r="E83">
-        <v>-0.03984652475599318</v>
+        <v>0.03373838348358363</v>
       </c>
       <c r="F83">
-        <v>-0.01310878154942209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04486335808780675</v>
+      </c>
+      <c r="G83">
+        <v>0.05049582473263427</v>
+      </c>
+      <c r="H83">
+        <v>-0.06522127342658993</v>
+      </c>
+      <c r="I83">
+        <v>-0.05001730222875713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2356537599552278</v>
+        <v>-0.2494620146369875</v>
       </c>
       <c r="C85">
-        <v>0.005675098772647498</v>
+        <v>-0.05036898334144559</v>
       </c>
       <c r="D85">
-        <v>-0.07683007287981175</v>
+        <v>-0.00482585579888997</v>
       </c>
       <c r="E85">
-        <v>0.05950256425969823</v>
+        <v>-0.1125976760104578</v>
       </c>
       <c r="F85">
-        <v>0.1538258792293207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1848207153085943</v>
+      </c>
+      <c r="G85">
+        <v>0.006226060193080648</v>
+      </c>
+      <c r="H85">
+        <v>0.02327818343727182</v>
+      </c>
+      <c r="I85">
+        <v>-0.07396733104641928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04282835834981092</v>
+        <v>-0.02831782546794183</v>
       </c>
       <c r="C86">
-        <v>0.04380304963411504</v>
+        <v>-0.05447977122768222</v>
       </c>
       <c r="D86">
-        <v>-0.03437842774901199</v>
+        <v>0.0009080748165360902</v>
       </c>
       <c r="E86">
-        <v>-0.006969155026230356</v>
+        <v>-0.01774381844196233</v>
       </c>
       <c r="F86">
-        <v>-0.06234227641715966</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07826444581336055</v>
+      </c>
+      <c r="G86">
+        <v>0.06439556156579293</v>
+      </c>
+      <c r="H86">
+        <v>-0.003254450965508247</v>
+      </c>
+      <c r="I86">
+        <v>-0.0562864273119024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01852136426730392</v>
+        <v>-0.02781560004875338</v>
       </c>
       <c r="C87">
-        <v>-0.03581760314051712</v>
+        <v>0.002258179707028769</v>
       </c>
       <c r="D87">
-        <v>0.007301283843112328</v>
+        <v>0.003729288148332155</v>
       </c>
       <c r="E87">
-        <v>-0.005236296102086852</v>
+        <v>0.002668865442952737</v>
       </c>
       <c r="F87">
-        <v>-0.09075636848011187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09620444851005465</v>
+      </c>
+      <c r="G87">
+        <v>0.02452246417360245</v>
+      </c>
+      <c r="H87">
+        <v>0.0161639318061495</v>
+      </c>
+      <c r="I87">
+        <v>-0.02802741109522182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03214169714465398</v>
+        <v>-0.03530198771165775</v>
       </c>
       <c r="C88">
-        <v>0.02166784687741165</v>
+        <v>-0.01079629635946949</v>
       </c>
       <c r="D88">
-        <v>-0.01578911802147066</v>
+        <v>0.006338891130208996</v>
       </c>
       <c r="E88">
-        <v>0.02390703371796273</v>
+        <v>-0.00673958803318957</v>
       </c>
       <c r="F88">
-        <v>0.02321550682053956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01882347258271737</v>
+      </c>
+      <c r="G88">
+        <v>0.02403305493777667</v>
+      </c>
+      <c r="H88">
+        <v>-0.04356155123497814</v>
+      </c>
+      <c r="I88">
+        <v>-0.006874153547685062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.0420538479263418</v>
+        <v>-0.08837132354286374</v>
       </c>
       <c r="C89">
-        <v>-0.3366024615600861</v>
+        <v>0.3850592210784704</v>
       </c>
       <c r="D89">
-        <v>0.1886949835895847</v>
+        <v>-0.06913582640291795</v>
       </c>
       <c r="E89">
-        <v>-0.08756826740847966</v>
+        <v>0.07602483916961583</v>
       </c>
       <c r="F89">
-        <v>-0.003684969862034686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03691093549379662</v>
+      </c>
+      <c r="G89">
+        <v>0.1074303561529952</v>
+      </c>
+      <c r="H89">
+        <v>-0.0401292390136752</v>
+      </c>
+      <c r="I89">
+        <v>-0.08937692350614436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.03338602983931031</v>
+        <v>-0.05793564722551418</v>
       </c>
       <c r="C90">
-        <v>-0.280369593534167</v>
+        <v>0.3260367733711035</v>
       </c>
       <c r="D90">
-        <v>0.1506748623470225</v>
+        <v>-0.04113938518168311</v>
       </c>
       <c r="E90">
-        <v>-0.02737523459369992</v>
+        <v>0.06838337147274984</v>
       </c>
       <c r="F90">
-        <v>-0.06612157969536596</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04175015469616698</v>
+      </c>
+      <c r="G90">
+        <v>0.05318973871130753</v>
+      </c>
+      <c r="H90">
+        <v>-0.01167136511498044</v>
+      </c>
+      <c r="I90">
+        <v>-0.06646069750407779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2687761002884071</v>
+        <v>-0.2866714531109675</v>
       </c>
       <c r="C91">
-        <v>0.00579193758765058</v>
+        <v>-0.05102859985075341</v>
       </c>
       <c r="D91">
-        <v>-0.0775178862186679</v>
+        <v>-0.01419630557041295</v>
       </c>
       <c r="E91">
-        <v>0.04462406317326834</v>
+        <v>-0.1071111423689</v>
       </c>
       <c r="F91">
-        <v>0.2674284478512011</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2711803092846312</v>
+      </c>
+      <c r="G91">
+        <v>-0.01156284172060405</v>
+      </c>
+      <c r="H91">
+        <v>0.04780032658664726</v>
+      </c>
+      <c r="I91">
+        <v>-0.06157647816131476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.0642810385818447</v>
+        <v>-0.1261554010389703</v>
       </c>
       <c r="C92">
-        <v>-0.304256889564655</v>
+        <v>0.3779033508087032</v>
       </c>
       <c r="D92">
-        <v>0.2287230870082743</v>
+        <v>-0.03031756216323917</v>
       </c>
       <c r="E92">
-        <v>-0.008955258359878907</v>
+        <v>0.09230204186671268</v>
       </c>
       <c r="F92">
-        <v>0.1098698034134197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1213317420696584</v>
+      </c>
+      <c r="G92">
+        <v>0.319306983283874</v>
+      </c>
+      <c r="H92">
+        <v>0.05663543194084971</v>
+      </c>
+      <c r="I92">
+        <v>0.1140618691715019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02829622595746576</v>
+        <v>-0.07377154440292134</v>
       </c>
       <c r="C93">
-        <v>-0.3338516901037099</v>
+        <v>0.3955743559517704</v>
       </c>
       <c r="D93">
-        <v>0.2013642755019136</v>
+        <v>-0.06157070189882159</v>
       </c>
       <c r="E93">
-        <v>-0.04928181226941706</v>
+        <v>0.1117413601179402</v>
       </c>
       <c r="F93">
-        <v>0.009274179375473654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.004932423356761338</v>
+      </c>
+      <c r="G93">
+        <v>0.02921647983213564</v>
+      </c>
+      <c r="H93">
+        <v>-0.05251949713501132</v>
+      </c>
+      <c r="I93">
+        <v>-0.003091669376337258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2792151419965553</v>
+        <v>-0.309968452114076</v>
       </c>
       <c r="C94">
-        <v>-0.119453588871236</v>
+        <v>0.04188898198990884</v>
       </c>
       <c r="D94">
-        <v>-0.0004766575474117225</v>
+        <v>-0.0458264060979126</v>
       </c>
       <c r="E94">
-        <v>0.01633001051681947</v>
+        <v>-0.1174457730705016</v>
       </c>
       <c r="F94">
-        <v>0.3335393300820303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3138786700685677</v>
+      </c>
+      <c r="G94">
+        <v>0.0464436967357562</v>
+      </c>
+      <c r="H94">
+        <v>0.2180678513851433</v>
+      </c>
+      <c r="I94">
+        <v>-0.01343303363087826</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1709147792864715</v>
+        <v>-0.1314642406710029</v>
       </c>
       <c r="C95">
-        <v>0.0536338154349885</v>
+        <v>-0.05662551668621241</v>
       </c>
       <c r="D95">
-        <v>-0.01924885755813079</v>
+        <v>-0.08017579978093407</v>
       </c>
       <c r="E95">
-        <v>-0.07178825955864884</v>
+        <v>-0.03017579710012961</v>
       </c>
       <c r="F95">
-        <v>0.4121911452163999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1133801809215097</v>
+      </c>
+      <c r="G95">
+        <v>0.1195021739966317</v>
+      </c>
+      <c r="H95">
+        <v>-0.8670030058784408</v>
+      </c>
+      <c r="I95">
+        <v>0.3556627001648176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2054703366868504</v>
+        <v>-0.2084363384014699</v>
       </c>
       <c r="C98">
-        <v>-0.08971904866799227</v>
+        <v>0.06209789837687759</v>
       </c>
       <c r="D98">
-        <v>0.02798998958799257</v>
+        <v>-0.06615715609854041</v>
       </c>
       <c r="E98">
-        <v>-0.08883419215511712</v>
+        <v>0.02744527172410659</v>
       </c>
       <c r="F98">
-        <v>-0.09851858651699835</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1725285584828598</v>
+      </c>
+      <c r="G98">
+        <v>-0.3422524083244269</v>
+      </c>
+      <c r="H98">
+        <v>-0.02306515145669493</v>
+      </c>
+      <c r="I98">
+        <v>0.1116331507735629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0322134784934905</v>
+        <v>-0.01792268049270205</v>
       </c>
       <c r="C101">
-        <v>0.01744989378511383</v>
+        <v>-0.03106312716216804</v>
       </c>
       <c r="D101">
-        <v>-0.03666241859200361</v>
+        <v>0.006443304170789795</v>
       </c>
       <c r="E101">
-        <v>0.01660140771885596</v>
+        <v>-0.03755780829955157</v>
       </c>
       <c r="F101">
-        <v>-0.01994082358051321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0619183348939706</v>
+      </c>
+      <c r="G101">
+        <v>0.1110136199226133</v>
+      </c>
+      <c r="H101">
+        <v>0.02959028452864719</v>
+      </c>
+      <c r="I101">
+        <v>0.1156700541621993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1012388821812874</v>
+        <v>-0.1165185949594782</v>
       </c>
       <c r="C102">
-        <v>0.01276613545749681</v>
+        <v>-0.02558531991143098</v>
       </c>
       <c r="D102">
-        <v>-0.04765642887604371</v>
+        <v>0.00608618693475415</v>
       </c>
       <c r="E102">
-        <v>0.04166913864832552</v>
+        <v>-0.05382776631221448</v>
       </c>
       <c r="F102">
-        <v>0.09784191167666258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1155315134824926</v>
+      </c>
+      <c r="G102">
+        <v>4.686196881259213e-05</v>
+      </c>
+      <c r="H102">
+        <v>0.002315387815954749</v>
+      </c>
+      <c r="I102">
+        <v>-0.05567709431255459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01949135097685161</v>
+        <v>-0.02908111276581544</v>
       </c>
       <c r="C103">
-        <v>0.004617006730966812</v>
+        <v>-0.008320772546496991</v>
       </c>
       <c r="D103">
-        <v>-0.0181232112996719</v>
+        <v>0.009430488203113818</v>
       </c>
       <c r="E103">
-        <v>0.00779198265374078</v>
+        <v>-0.01921054075856921</v>
       </c>
       <c r="F103">
-        <v>0.03590093236889336</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02773294930125731</v>
+      </c>
+      <c r="G103">
+        <v>0.01819384695195323</v>
+      </c>
+      <c r="H103">
+        <v>-0.007326553481612887</v>
+      </c>
+      <c r="I103">
+        <v>-0.01352523147468876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
